--- a/data/trans_dic/P14B23_2016_2023-Dificultad-trans_dic.xlsx
+++ b/data/trans_dic/P14B23_2016_2023-Dificultad-trans_dic.xlsx
@@ -624,7 +624,7 @@
         <v>0.05149033161191333</v>
       </c>
       <c r="H4" s="5" t="n">
-        <v>0.09839103911160151</v>
+        <v>0.09839103911160149</v>
       </c>
     </row>
     <row r="5">
@@ -635,22 +635,22 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.02018363304079593</v>
+        <v>0.0203442210616105</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.06130129539240802</v>
+        <v>0.06006843781709723</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.05695841987957181</v>
+        <v>0.05801574245849785</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.09072330546578519</v>
+        <v>0.09119597888562048</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>0.04175585561003216</v>
+        <v>0.04294397485898706</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>0.08178345928337334</v>
+        <v>0.08369425541491629</v>
       </c>
     </row>
     <row r="6">
@@ -661,22 +661,22 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.04010146367816946</v>
+        <v>0.040422413385044</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.1110866868462469</v>
+        <v>0.1089601498000376</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.0888754098779193</v>
+        <v>0.08696828689920394</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.1349498746600291</v>
+        <v>0.1341984602401678</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.06094181672352986</v>
+        <v>0.0614924874686495</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.1168782748768578</v>
+        <v>0.1148525971366932</v>
       </c>
     </row>
     <row r="7">
@@ -694,7 +694,7 @@
         <v>0.007235362153499108</v>
       </c>
       <c r="D7" s="5" t="n">
-        <v>0.02697084709225755</v>
+        <v>0.02697084709225754</v>
       </c>
       <c r="E7" s="5" t="n">
         <v>0.03399624605048625</v>
@@ -717,22 +717,22 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.002925400019298554</v>
+        <v>0.002858859821367154</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.01800644130525539</v>
+        <v>0.01794197975142678</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.02358943647120633</v>
+        <v>0.02434801491933492</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.05534816376818417</v>
+        <v>0.05637586258250241</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.01545729523067169</v>
+        <v>0.01514941464292682</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>0.04115670369193115</v>
+        <v>0.0405465893201444</v>
       </c>
     </row>
     <row r="9">
@@ -743,22 +743,22 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.0147571095337928</v>
+        <v>0.01397918293173539</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.03800821653197841</v>
+        <v>0.03892969763285232</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.04611774290266872</v>
+        <v>0.04744197486961343</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.0810746830322603</v>
+        <v>0.08039168958461676</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.02923882032162556</v>
+        <v>0.02870702748344902</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.05732208701670149</v>
+        <v>0.05818399951567791</v>
       </c>
     </row>
     <row r="10">
@@ -782,7 +782,7 @@
         <v>0.02744750225011173</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>0.04634550790638175</v>
+        <v>0.04634550790638174</v>
       </c>
       <c r="G10" s="5" t="n">
         <v>0.01630537953071673</v>
@@ -799,22 +799,22 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.002185714584864166</v>
+        <v>0.002292016743490719</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.0114443675269673</v>
+        <v>0.01115404720068248</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.01737768142707709</v>
+        <v>0.01594658447903052</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.03714331165767292</v>
+        <v>0.03627787191163487</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.01038145754409567</v>
+        <v>0.01062670451053889</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>0.02608167088273055</v>
+        <v>0.02603803618908858</v>
       </c>
     </row>
     <row r="12">
@@ -825,22 +825,22 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.01272677779595614</v>
+        <v>0.01437753320394078</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.02809789000491235</v>
+        <v>0.02757480059782277</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.04257566662971395</v>
+        <v>0.04082980779243066</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.05904282573992402</v>
+        <v>0.05805330678847725</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.02395159759214781</v>
+        <v>0.02323692325428796</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.03986040805708754</v>
+        <v>0.04008017902304775</v>
       </c>
     </row>
     <row r="13">
@@ -884,19 +884,19 @@
         <v>0</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.01624641273099196</v>
+        <v>0.01666488235821911</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.006737954432832574</v>
+        <v>0.007771498940619896</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.02080870887374009</v>
+        <v>0.02110264659378055</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.004932330022991256</v>
+        <v>0.005127055344756745</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>0.02058422544460663</v>
+        <v>0.02056795185129649</v>
       </c>
     </row>
     <row r="15">
@@ -907,22 +907,22 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.01552304772660628</v>
+        <v>0.01445085838414358</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.04136790422453386</v>
+        <v>0.04086052532513614</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.03339584682546546</v>
+        <v>0.03329798742459197</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.0388115099149326</v>
+        <v>0.03873178224787435</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.01838705258475289</v>
+        <v>0.01908484668749042</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.03611173814453759</v>
+        <v>0.03534565348540769</v>
       </c>
     </row>
     <row r="16">
@@ -946,7 +946,7 @@
         <v>0.0434926247140666</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>0.05952707951513855</v>
+        <v>0.05952707951513857</v>
       </c>
       <c r="G16" s="5" t="n">
         <v>0.0289931795919595</v>
@@ -963,22 +963,22 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.01009319946380755</v>
+        <v>0.01019011807918532</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.02607907920483544</v>
+        <v>0.02596698604341356</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.03704551170013049</v>
+        <v>0.03710103080579689</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>0.05318322283862131</v>
+        <v>0.05361726175612631</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>0.0250369850042342</v>
+        <v>0.02518848669579951</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>0.0416263822968165</v>
+        <v>0.04174524668715852</v>
       </c>
     </row>
     <row r="18">
@@ -989,22 +989,22 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.01805255774216059</v>
+        <v>0.01818469826710199</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.03834719242743687</v>
+        <v>0.03856675319338407</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.05160893473285481</v>
+        <v>0.05161255947126277</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>0.0666708981884498</v>
+        <v>0.06639563129197508</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>0.03366147358431479</v>
+        <v>0.0333976871594951</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>0.05046591460566831</v>
+        <v>0.05075503828562186</v>
       </c>
     </row>
     <row r="19">
@@ -1191,22 +1191,22 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>22767</v>
+        <v>22948</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>30356</v>
+        <v>29745</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>71743</v>
+        <v>73074</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>56511</v>
+        <v>56805</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>99695</v>
+        <v>102531</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>91440</v>
+        <v>93577</v>
       </c>
     </row>
     <row r="7">
@@ -1217,22 +1217,22 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>45234</v>
+        <v>45596</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>55009</v>
+        <v>53956</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>111944</v>
+        <v>109542</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>84059</v>
+        <v>83591</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>145502</v>
+        <v>146817</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>130679</v>
+        <v>128414</v>
       </c>
     </row>
     <row r="8">
@@ -1299,22 +1299,22 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>2659</v>
+        <v>2598</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>17289</v>
+        <v>17227</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>23719</v>
+        <v>24482</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>61640</v>
+        <v>62785</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>29590</v>
+        <v>29001</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>85352</v>
+        <v>84086</v>
       </c>
     </row>
     <row r="11">
@@ -1325,22 +1325,22 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>13412</v>
+        <v>12705</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>36493</v>
+        <v>37378</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>46371</v>
+        <v>47703</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>90291</v>
+        <v>89531</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>55973</v>
+        <v>54955</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>118876</v>
+        <v>120663</v>
       </c>
     </row>
     <row r="12">
@@ -1407,22 +1407,22 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>1801</v>
+        <v>1888</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>11968</v>
+        <v>11664</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>13399</v>
+        <v>12296</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>38889</v>
+        <v>37983</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>16557</v>
+        <v>16948</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>54582</v>
+        <v>54491</v>
       </c>
     </row>
     <row r="15">
@@ -1433,22 +1433,22 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>10484</v>
+        <v>11844</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>29383</v>
+        <v>28836</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>32828</v>
+        <v>31482</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>61817</v>
+        <v>60781</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>38198</v>
+        <v>37059</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>83417</v>
+        <v>83877</v>
       </c>
     </row>
     <row r="16">
@@ -1518,19 +1518,19 @@
         <v>0</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>15855</v>
+        <v>16264</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>3300</v>
+        <v>3806</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>18900</v>
+        <v>19166</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>4915</v>
+        <v>5109</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>38784</v>
+        <v>38754</v>
       </c>
     </row>
     <row r="19">
@@ -1541,22 +1541,22 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>7866</v>
+        <v>7322</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>40372</v>
+        <v>39877</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>16354</v>
+        <v>16306</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>35251</v>
+        <v>35178</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>18321</v>
+        <v>19016</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>68041</v>
+        <v>66598</v>
       </c>
     </row>
     <row r="20">
@@ -1623,22 +1623,22 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>33987</v>
+        <v>34313</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>90677</v>
+        <v>90287</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>130616</v>
+        <v>130811</v>
       </c>
       <c r="F22" s="6" t="n">
-        <v>196343</v>
+        <v>197945</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>172582</v>
+        <v>173627</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>298411</v>
+        <v>299264</v>
       </c>
     </row>
     <row r="23">
@@ -1649,22 +1649,22 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>60788</v>
+        <v>61233</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>133333</v>
+        <v>134096</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>181964</v>
+        <v>181976</v>
       </c>
       <c r="F23" s="6" t="n">
-        <v>246137</v>
+        <v>245120</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>232032</v>
+        <v>230214</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>361780</v>
+        <v>363853</v>
       </c>
     </row>
     <row r="24">
